--- a/Content/Asset/JBS/missionProcess.xlsx
+++ b/Content/Asset/JBS/missionProcess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JKAKK\MTVS_AirJet_Final\Content\Asset\JBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33011258-69CF-4DB8-B70D-7238E9827162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC84FDDD-E971-4739-BFAA-FCD0CDEA560A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2134,6 +2134,10 @@
       </rPr>
       <t>"</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popupDelay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2541,10 +2545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2552,9 +2556,10 @@
     <col min="1" max="1" width="5" style="5" customWidth="1"/>
     <col min="2" max="2" width="33.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="46" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2564,15 +2569,18 @@
       <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2581,35 +2589,35 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2619,8 +2627,11 @@
       <c r="D8" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2629,7 +2640,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2638,7 +2649,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2647,7 +2658,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2656,7 +2667,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2665,7 +2676,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2674,7 +2685,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2683,14 +2694,14 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2700,8 +2711,11 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2710,7 +2724,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2719,21 +2733,21 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="4"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="4"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2742,7 +2756,7 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2752,8 +2766,11 @@
       <c r="D23" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2761,7 +2778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2769,19 +2786,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2789,7 +2806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2797,7 +2814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2805,7 +2822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2813,7 +2830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>31</v>
       </c>

--- a/Content/Asset/JBS/missionProcess.xlsx
+++ b/Content/Asset/JBS/missionProcess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JKAKK\MTVS_AirJet_Final\Content\Asset\JBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC84FDDD-E971-4739-BFAA-FCD0CDEA560A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F130A235-91BB-4CA2-ACA5-E7DF8445026F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2548,7 +2548,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2628,7 +2628,7 @@
         <v>29</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2712,7 +2712,7 @@
         <v>28</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2767,7 +2767,7 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/Content/Asset/JBS/missionProcess.xlsx
+++ b/Content/Asset/JBS/missionProcess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JKAKK\MTVS_AirJet_Final\Content\Asset\JBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABA628E-1F5A-4395-B0C7-95101E03AAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7142C4F7-55CF-41D6-928B-104D6562438B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,26 +115,582 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 사전 준비: 복장준비 및 사전점검
-파일럿들은 머리에 피가 잘 공급되도록 G슈트를 착용합니다. G슈트가 없다면 비행중 의식을 잃을 수 있어요.
-"비행 준비 과정중의 사소한 실수조차 큰 사고로 이어질 수 있습니다. 항상 주의하세요. 준비되셨나요? 이제 직접 시동을 걸어보세요"</t>
-  </si>
-  <si>
-    <t>2. 이륙 전: 점검
-파일럿은 안전한 비행을 위해 계기판과 레버 등을 최적의 상태로 맞춥니다.
-"이륙 절차를 수행할 때의 파일럿들은 바람, 속도, 활주로 상태를 고려해야 하는 어려움이 있습니다. 준비되셨나요? 리더는 Alpha1, 윙맨은 Alpha2로 불립니다. 000에 자신의 포지션을 넣어 외쳐보세요!"</t>
-  </si>
-  <si>
-    <t>3. 이륙 직후: 편대
-파일럿들은 사선 편대 대형으로 비행하며 리더와 윙맨 역할을 수행합니다. 리더는 Alpha1, 윙맨은 Alpha2로 불리며 서로 간격을 유지합니다.
-"편대 비행을 할 때에는 정확한 거리와 대형을 유지해야합니다. 이를 위해 파일럿들은 충분한 훈련이 필요합니다. 지금부터 여러분도 함께 비행하며 팀워크를 체험해보세요!"</t>
+    <t>1. 사전 준비: 복장준비 및 사전점검 
+G슈트를 착용하고 모든 장비를 점검합니다.
+전투기 파일럿은 비행중 가해지는 _x0003_중력가속도로 의식을 잃기도 합니다.
+이를 방지하기 위해 G슈트를 착용합니다.
+"준비되셨나요? _x0003_이제 직접 시동을 걸어보겠습니다."</t>
+  </si>
+  <si>
+    <t>2. 이륙 전: 기체 세팅 및 콜싸인 확인
+파일럿은 안전한 비행을 위해 _x0003_비행 전 기상환경에 따라_x0003_계기판과 레버 등을 최적의 상태로 맞춥니다._x0003__x0003__x0003__x0003_
+"준비되셨나요? _x0003_리더는 Alpha1, 윙맨은 Alpha2로 불립니다. _x0003_000에 자신의 포지션을 넣어 외쳐보세요!"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이륙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편대비행
+파일럿들은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대형으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비행하며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> _x0003_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리더와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>윙맨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역할을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>._x0003__x0003__x0003__x0003_
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비행을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> _x0003_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정확한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거리와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대형을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유지해야합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. _x0003_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일럿들은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>충분한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>훈련이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. _x0003_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지금부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비행하며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀워크를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체험해보세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +729,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -523,7 +1086,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
